--- a/02 DBDesign/SUC数据字典v1.0.xlsx
+++ b/02 DBDesign/SUC数据字典v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\02 DBDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01广西圣尧\01华为云\01国防科技大学物联网项目\NUofDTechnologyInternetofThingsSys\02 DBDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B009907-CECD-456B-8EEF-005E4A92D909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC23E4-A754-4995-825E-7D444002F3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="108" windowWidth="15900" windowHeight="11508" tabRatio="288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" tabRatio="288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUC_Table" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="211">
   <si>
     <t>表名</t>
   </si>
@@ -728,6 +728,150 @@
   </si>
   <si>
     <t>nvarchar(1000)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineCode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineTypeCode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineState</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricQuantity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>StructureCommence</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuttingCapacity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropellerAvailability</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverallEvaluationBuild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachinePicture</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SUC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Machine</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器类型代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>机器状态：0表示正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  1表示不工作 2表示故障</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>截弹量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构完好度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余电量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀浆可用性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合评估建设：0表示继续作战 1表示待命中 2表示建议返航</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器图片路径</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机数据信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1303,23 +1447,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F126" sqref="B126:F126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="43.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1351,7 +1495,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1371,7 +1515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>97</v>
       </c>
@@ -1391,7 +1535,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1411,7 +1555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>78</v>
@@ -1429,7 +1573,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>79</v>
@@ -1447,7 +1591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
         <v>30</v>
@@ -1465,7 +1609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="11" t="s">
         <v>32</v>
@@ -1483,7 +1627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="11" t="s">
         <v>34</v>
@@ -1501,7 +1645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
         <v>36</v>
@@ -1519,7 +1663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="12" t="s">
         <v>38</v>
@@ -1537,7 +1681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>40</v>
@@ -1555,7 +1699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>42</v>
@@ -1573,7 +1717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>44</v>
@@ -1591,7 +1735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>12</v>
@@ -1609,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
@@ -1627,7 +1771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
         <v>14</v>
@@ -1645,7 +1789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
         <v>16</v>
@@ -1663,7 +1807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1681,7 +1825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="5" t="s">
         <v>20</v>
@@ -1699,7 +1843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>115</v>
       </c>
@@ -1711,7 +1855,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" s="11" t="s">
         <v>50</v>
@@ -1749,7 +1893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="11" t="s">
         <v>51</v>
@@ -1767,7 +1911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
@@ -1785,7 +1929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1803,7 +1947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="5" t="s">
         <v>14</v>
@@ -1821,7 +1965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="5" t="s">
         <v>16</v>
@@ -1839,7 +1983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="5" t="s">
         <v>18</v>
@@ -1857,7 +2001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="5" t="s">
         <v>20</v>
@@ -1875,7 +2019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>53</v>
       </c>
@@ -1887,7 +2031,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +2051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="16" t="s">
         <v>98</v>
@@ -1925,7 +2069,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="16" t="s">
         <v>58</v>
@@ -1943,7 +2087,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="16" t="s">
         <v>60</v>
@@ -1961,7 +2105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="16" t="s">
         <v>62</v>
@@ -1979,7 +2123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="16" t="s">
         <v>99</v>
@@ -1997,7 +2141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="16" t="s">
         <v>65</v>
@@ -2015,7 +2159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="16" t="s">
         <v>100</v>
@@ -2033,7 +2177,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="27" t="s">
         <v>114</v>
@@ -2049,7 +2193,7 @@
       </c>
       <c r="F41" s="28"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
       <c r="B42" s="5" t="s">
         <v>9</v>
@@ -2067,7 +2211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
         <v>12</v>
@@ -2085,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="9"/>
       <c r="B44" s="5" t="s">
         <v>14</v>
@@ -2103,7 +2247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
         <v>16</v>
@@ -2121,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="9"/>
       <c r="B46" s="5" t="s">
         <v>18</v>
@@ -2139,7 +2283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="9"/>
       <c r="B47" s="5" t="s">
         <v>20</v>
@@ -2157,7 +2301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>68</v>
       </c>
@@ -2169,7 +2313,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>21</v>
       </c>
@@ -2209,7 +2353,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>21</v>
       </c>
@@ -2229,7 +2373,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="5" t="s">
         <v>9</v>
@@ -2247,7 +2391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="5" t="s">
         <v>12</v>
@@ -2265,7 +2409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
       <c r="B54" s="5" t="s">
         <v>14</v>
@@ -2283,7 +2427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
         <v>16</v>
@@ -2301,7 +2445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
         <v>18</v>
@@ -2319,7 +2463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="19"/>
       <c r="B57" s="18" t="s">
         <v>20</v>
@@ -2337,7 +2481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>101</v>
       </c>
@@ -2349,7 +2493,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>102</v>
       </c>
@@ -2369,7 +2513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>105</v>
@@ -2387,7 +2531,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>106</v>
@@ -2405,7 +2549,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="11" t="s">
         <v>107</v>
@@ -2423,7 +2567,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="5" t="s">
         <v>9</v>
@@ -2441,7 +2585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="5" t="s">
         <v>12</v>
@@ -2459,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="5" t="s">
         <v>14</v>
@@ -2477,7 +2621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
       <c r="B66" s="5" t="s">
         <v>16</v>
@@ -2495,7 +2639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="9"/>
       <c r="B67" s="5" t="s">
         <v>18</v>
@@ -2513,7 +2657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="19"/>
       <c r="B68" s="18" t="s">
         <v>20</v>
@@ -2531,7 +2675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="29" t="s">
         <v>173</v>
       </c>
@@ -2543,7 +2687,7 @@
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="24" t="s">
         <v>120</v>
       </c>
@@ -2563,7 +2707,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="24"/>
       <c r="B71" s="24" t="s">
         <v>125</v>
@@ -2581,7 +2725,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="24"/>
       <c r="B72" s="24" t="s">
         <v>127</v>
@@ -2599,7 +2743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="24"/>
       <c r="B73" s="24" t="s">
         <v>129</v>
@@ -2617,7 +2761,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="24"/>
       <c r="B74" s="24" t="s">
         <v>131</v>
@@ -2635,7 +2779,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="24"/>
       <c r="B75" s="24" t="s">
         <v>133</v>
@@ -2653,7 +2797,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="24"/>
       <c r="B76" s="24" t="s">
         <v>135</v>
@@ -2671,7 +2815,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="24"/>
       <c r="B77" s="24" t="s">
         <v>137</v>
@@ -2689,7 +2833,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="24"/>
       <c r="B78" s="24" t="s">
         <v>139</v>
@@ -2707,7 +2851,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="24"/>
       <c r="B79" s="24" t="s">
         <v>143</v>
@@ -2725,7 +2869,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="24"/>
       <c r="B80" s="24" t="s">
         <v>145</v>
@@ -2743,7 +2887,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="24"/>
       <c r="B81" s="25" t="s">
         <v>147</v>
@@ -2761,7 +2905,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="24"/>
       <c r="B82" s="24" t="s">
         <v>83</v>
@@ -2779,7 +2923,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="24"/>
       <c r="B83" s="24" t="s">
         <v>82</v>
@@ -2797,7 +2941,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="24"/>
       <c r="B84" s="24" t="s">
         <v>85</v>
@@ -2815,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="24"/>
       <c r="B85" s="24" t="s">
         <v>86</v>
@@ -2833,7 +2977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="24"/>
       <c r="B86" s="24" t="s">
         <v>87</v>
@@ -2851,7 +2995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>88</v>
@@ -2869,7 +3013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="21" t="s">
         <v>174</v>
       </c>
@@ -2881,7 +3025,7 @@
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="24"/>
       <c r="B89" s="24" t="s">
         <v>152</v>
@@ -2899,7 +3043,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="24"/>
       <c r="B90" s="24" t="s">
         <v>125</v>
@@ -2917,7 +3061,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="24"/>
       <c r="B91" s="24" t="s">
         <v>154</v>
@@ -2935,7 +3079,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="24"/>
       <c r="B92" s="24" t="s">
         <v>177</v>
@@ -2953,7 +3097,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="24"/>
       <c r="B93" s="24" t="s">
         <v>156</v>
@@ -2971,7 +3115,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="24"/>
       <c r="B94" s="24" t="s">
         <v>83</v>
@@ -2989,7 +3133,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="24"/>
       <c r="B95" s="24" t="s">
         <v>82</v>
@@ -3007,7 +3151,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="24"/>
       <c r="B96" s="24" t="s">
         <v>85</v>
@@ -3025,7 +3169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="24"/>
       <c r="B97" s="24" t="s">
         <v>86</v>
@@ -3043,7 +3187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="24"/>
       <c r="B98" s="24" t="s">
         <v>87</v>
@@ -3061,7 +3205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="24"/>
       <c r="B99" s="24" t="s">
         <v>88</v>
@@ -3079,7 +3223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="21" t="s">
         <v>175</v>
       </c>
@@ -3091,7 +3235,7 @@
       <c r="E100" s="22"/>
       <c r="F100" s="22"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="24"/>
       <c r="B101" s="24" t="s">
         <v>160</v>
@@ -3109,7 +3253,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="24"/>
       <c r="B102" s="24" t="s">
         <v>125</v>
@@ -3127,7 +3271,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="24"/>
       <c r="B103" s="24" t="s">
         <v>129</v>
@@ -3145,7 +3289,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="24"/>
       <c r="B104" s="24" t="s">
         <v>131</v>
@@ -3163,7 +3307,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="24"/>
       <c r="B105" s="24" t="s">
         <v>162</v>
@@ -3181,7 +3325,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="24"/>
       <c r="B106" s="24" t="s">
         <v>163</v>
@@ -3199,7 +3343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="24"/>
       <c r="B107" s="24" t="s">
         <v>165</v>
@@ -3217,7 +3361,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="24"/>
       <c r="B108" s="24" t="s">
         <v>167</v>
@@ -3235,7 +3379,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="24"/>
       <c r="B109" s="24" t="s">
         <v>169</v>
@@ -3253,7 +3397,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="24"/>
       <c r="B110" s="24" t="s">
         <v>171</v>
@@ -3271,7 +3415,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="24"/>
       <c r="B111" s="24" t="s">
         <v>83</v>
@@ -3289,7 +3433,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="24"/>
       <c r="B112" s="24" t="s">
         <v>82</v>
@@ -3307,7 +3451,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="24"/>
       <c r="B113" s="24" t="s">
         <v>85</v>
@@ -3325,7 +3469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="24"/>
       <c r="B114" s="24" t="s">
         <v>86</v>
@@ -3343,7 +3487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="24"/>
       <c r="B115" s="24" t="s">
         <v>87</v>
@@ -3361,7 +3505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="24"/>
       <c r="B116" s="24" t="s">
         <v>88</v>
@@ -3376,6 +3520,342 @@
         <v>13</v>
       </c>
       <c r="F116" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="24"/>
+      <c r="B118" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="24"/>
+      <c r="B119" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="24"/>
+      <c r="B120" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="24"/>
+      <c r="B121" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="24"/>
+      <c r="B122" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="24"/>
+      <c r="B123" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="24"/>
+      <c r="B124" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="24"/>
+      <c r="B125" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="24"/>
+      <c r="B126" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="24"/>
+      <c r="B127" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A128" s="24"/>
+      <c r="B128" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" s="24"/>
+      <c r="B129" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="24"/>
+      <c r="B130" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="23"/>
+      <c r="B131" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" s="24"/>
+      <c r="B132" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="24"/>
+      <c r="B133" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" s="24"/>
+      <c r="B134" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" s="24"/>
+      <c r="B135" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="25" t="s">
         <v>7</v>
       </c>
     </row>
